--- a/00_DataShare/01_Table_Demo.xlsx
+++ b/00_DataShare/01_Table_Demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1e7633f5fedc5e50/02_HOC TAP/01_HOC LAP TRINH/LOP_C2405L1-ON/HK1/6_PHP Development with Laravel Framework/02_PHP PROJECT/btck_organic_food-main/00_DataShare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\btck_organic_food\00_DataShare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="13_ncr:1_{2DB286E7-6EA3-42E9-8215-EAFF7ACF9BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EED2388-0CAF-45AE-8F46-2FDC2789F601}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5AFD7E-DF78-45C1-8B7E-3B7ADCD46A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="2460" windowWidth="16755" windowHeight="10200" xr2:uid="{A0CD7BE1-6CED-4699-9682-DF7E0E1909CD}"/>
+    <workbookView xWindow="468" yWindow="2556" windowWidth="17016" windowHeight="8880" xr2:uid="{A0CD7BE1-6CED-4699-9682-DF7E0E1909CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_Demo" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
         <u/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Arial"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1265,21 +1265,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="3" tint="0.499984740745262"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1287,13 +1287,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1301,14 +1301,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1597,9 +1597,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1607,6 +1604,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1630,12 +1636,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1652,10 +1652,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1977,49 +1973,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE3A85C-6E0E-4AD2-BB54-327AE1A0A003}">
   <dimension ref="A2:AP109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Z36" sqref="Z36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" customWidth="1"/>
-    <col min="5" max="5" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
-    <col min="8" max="8" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" customWidth="1"/>
-    <col min="12" max="12" width="11.6328125" customWidth="1"/>
-    <col min="13" max="13" width="13.6328125" customWidth="1"/>
-    <col min="14" max="15" width="11.1796875" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="12.296875" customWidth="1"/>
+    <col min="2" max="2" width="20.59765625" customWidth="1"/>
+    <col min="3" max="3" width="21.296875" customWidth="1"/>
+    <col min="4" max="4" width="16.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" customWidth="1"/>
+    <col min="8" max="8" width="10.69921875" customWidth="1"/>
+    <col min="10" max="10" width="10.796875" customWidth="1"/>
+    <col min="11" max="11" width="11.296875" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" customWidth="1"/>
+    <col min="13" max="13" width="13.59765625" customWidth="1"/>
+    <col min="14" max="15" width="11.19921875" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="15.08984375" customWidth="1"/>
-    <col min="20" max="20" width="14.54296875" customWidth="1"/>
-    <col min="21" max="21" width="17.81640625" customWidth="1"/>
-    <col min="22" max="22" width="15.453125" customWidth="1"/>
-    <col min="23" max="23" width="11.7265625" customWidth="1"/>
-    <col min="24" max="24" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.81640625" customWidth="1"/>
-    <col min="26" max="26" width="17.81640625" customWidth="1"/>
-    <col min="27" max="27" width="16.81640625" customWidth="1"/>
-    <col min="28" max="28" width="14.08984375" customWidth="1"/>
-    <col min="29" max="30" width="17.08984375" customWidth="1"/>
-    <col min="31" max="31" width="15.453125" customWidth="1"/>
-    <col min="32" max="32" width="17.1796875" customWidth="1"/>
-    <col min="33" max="33" width="13.26953125" customWidth="1"/>
+    <col min="19" max="19" width="15.09765625" customWidth="1"/>
+    <col min="20" max="20" width="14.5" customWidth="1"/>
+    <col min="21" max="21" width="17.796875" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="23" max="23" width="11.69921875" customWidth="1"/>
+    <col min="24" max="24" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.796875" customWidth="1"/>
+    <col min="26" max="26" width="17.796875" customWidth="1"/>
+    <col min="27" max="27" width="16.796875" customWidth="1"/>
+    <col min="28" max="28" width="14.09765625" customWidth="1"/>
+    <col min="29" max="30" width="17.09765625" customWidth="1"/>
+    <col min="31" max="31" width="15.5" customWidth="1"/>
+    <col min="32" max="32" width="17.19921875" customWidth="1"/>
+    <col min="33" max="33" width="13.296875" customWidth="1"/>
     <col min="34" max="34" width="18" customWidth="1"/>
-    <col min="35" max="35" width="11.90625" customWidth="1"/>
-    <col min="36" max="36" width="11.453125" customWidth="1"/>
-    <col min="37" max="37" width="16.6328125" customWidth="1"/>
+    <col min="35" max="35" width="11.8984375" customWidth="1"/>
+    <col min="36" max="36" width="11.5" customWidth="1"/>
+    <col min="37" max="37" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2030,7 +2026,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2080,7 +2076,7 @@
       <c r="AJ3" s="37"/>
       <c r="AK3" s="38"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>171</v>
       </c>
@@ -2190,7 +2186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -2256,7 +2252,7 @@
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2324,7 +2320,7 @@
       </c>
       <c r="AK6" s="8"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -2392,7 +2388,7 @@
       </c>
       <c r="AK7" s="8"/>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -2460,7 +2456,7 @@
       </c>
       <c r="AK8" s="8"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -2528,7 +2524,7 @@
       </c>
       <c r="AK9" s="8"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="V10" s="1">
         <v>6</v>
       </c>
@@ -2568,7 +2564,7 @@
       </c>
       <c r="AK10" s="8"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>278</v>
       </c>
@@ -2579,7 +2575,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
@@ -2639,7 +2635,7 @@
       <c r="AO13" s="23"/>
       <c r="AP13" s="23"/>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>171</v>
       </c>
@@ -2761,7 +2757,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>373</v>
@@ -2829,7 +2825,7 @@
       <c r="AO15" s="1"/>
       <c r="AP15" s="1"/>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>376</v>
@@ -2895,7 +2891,7 @@
       <c r="AO16" s="1"/>
       <c r="AP16" s="1"/>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>378</v>
@@ -2961,7 +2957,7 @@
       <c r="AO17" s="1"/>
       <c r="AP17" s="1"/>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>383</v>
@@ -3027,7 +3023,7 @@
       <c r="AO18" s="1"/>
       <c r="AP18" s="1"/>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>385</v>
@@ -3068,7 +3064,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3103,7 +3099,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:42" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>277</v>
       </c>
@@ -3111,7 +3107,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="L22" t="s">
         <v>56</v>
       </c>
@@ -3137,7 +3133,7 @@
       </c>
       <c r="AI22" s="44"/>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
         <v>208</v>
       </c>
@@ -3201,7 +3197,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>171</v>
       </c>
@@ -3283,7 +3279,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3327,7 +3323,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3371,7 +3367,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3413,7 +3409,7 @@
       <c r="AH27" s="44"/>
       <c r="AI27" s="44"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3453,7 +3449,7 @@
       <c r="AH28" s="44"/>
       <c r="AI28" s="44"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3474,7 +3470,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3495,7 +3491,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="V31" s="23" t="s">
         <v>59</v>
       </c>
@@ -3514,7 +3510,7 @@
       <c r="AE31" s="23"/>
       <c r="AF31" s="23"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="V32" s="7" t="s">
         <v>171</v>
       </c>
@@ -3549,7 +3545,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
         <v>221</v>
       </c>
@@ -3591,7 +3587,7 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>171</v>
       </c>
@@ -3657,7 +3653,7 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3693,7 +3689,7 @@
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3729,7 +3725,7 @@
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3765,7 +3761,7 @@
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3782,7 +3778,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3799,7 +3795,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3816,7 +3812,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3833,7 +3829,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
         <v>280</v>
       </c>
@@ -3851,7 +3847,7 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
     </row>
-    <row r="44" spans="1:32" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>171</v>
       </c>
@@ -3883,7 +3879,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3894,16 +3890,16 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="V45" s="50" t="s">
+      <c r="V45" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="W45" s="50"/>
-      <c r="Y45" s="50" t="s">
+      <c r="W45" s="53"/>
+      <c r="Y45" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="Z45" s="50"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="Z45" s="53"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3927,7 +3923,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3951,7 +3947,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3975,7 +3971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3999,7 +3995,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4023,7 +4019,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V51" s="44"/>
       <c r="W51" s="44"/>
       <c r="Y51" s="44">
@@ -4033,7 +4029,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>285</v>
       </c>
@@ -4049,7 +4045,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>227</v>
       </c>
@@ -4085,7 +4081,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>171</v>
       </c>
@@ -4137,7 +4133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -4175,7 +4171,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -4207,7 +4203,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -4238,14 +4234,14 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
-      <c r="V57" s="50" t="s">
+      <c r="V57" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="W57" s="50"/>
-      <c r="X57" s="50"/>
-      <c r="Y57" s="50"/>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="W57" s="53"/>
+      <c r="X57" s="53"/>
+      <c r="Y57" s="53"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>4</v>
       </c>
@@ -4289,7 +4285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>5</v>
       </c>
@@ -4333,7 +4329,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>6</v>
       </c>
@@ -4377,7 +4373,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V61" s="44">
         <v>3</v>
       </c>
@@ -4391,7 +4387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="V62" s="44">
         <v>4</v>
       </c>
@@ -4405,7 +4401,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
         <v>246</v>
       </c>
@@ -4436,7 +4432,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>171</v>
       </c>
@@ -4468,7 +4464,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -4491,7 +4487,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -4514,7 +4510,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>3</v>
       </c>
@@ -4537,7 +4533,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>4</v>
       </c>
@@ -4560,7 +4556,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>5</v>
       </c>
@@ -4583,7 +4579,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>6</v>
       </c>
@@ -4606,12 +4602,12 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="J71" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
         <v>229</v>
       </c>
@@ -4653,7 +4649,7 @@
       <c r="Y72" s="23"/>
       <c r="Z72" s="23"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>171</v>
       </c>
@@ -4727,7 +4723,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4773,7 +4769,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4807,7 +4803,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4833,7 +4829,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4859,7 +4855,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4885,7 +4881,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4911,7 +4907,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
         <v>235</v>
       </c>
@@ -4946,7 +4942,7 @@
       <c r="R82" s="23"/>
       <c r="S82" s="23"/>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="42" t="s">
         <v>171</v>
       </c>
@@ -4999,7 +4995,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -5038,7 +5034,7 @@
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -5077,7 +5073,7 @@
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>3</v>
       </c>
@@ -5116,7 +5112,7 @@
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>4</v>
       </c>
@@ -5155,7 +5151,7 @@
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>5</v>
       </c>
@@ -5194,7 +5190,7 @@
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5223,49 +5219,49 @@
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
     </row>
-    <row r="92" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A94" s="51" t="s">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A94" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B94" s="51"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="51"/>
-      <c r="E94" s="51"/>
-      <c r="F94" s="51"/>
-      <c r="H94" s="51" t="s">
+      <c r="B94" s="50"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="H94" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="I94" s="51"/>
-      <c r="J94" s="51"/>
-      <c r="K94" s="51"/>
-      <c r="L94" s="51"/>
-      <c r="M94" s="51"/>
-      <c r="O94" s="51" t="s">
+      <c r="I94" s="50"/>
+      <c r="J94" s="50"/>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="50"/>
+      <c r="O94" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="P94" s="51"/>
-      <c r="Q94" s="51"/>
-      <c r="R94" s="51"/>
-      <c r="S94" s="51"/>
-      <c r="V94" s="51" t="s">
+      <c r="P94" s="50"/>
+      <c r="Q94" s="50"/>
+      <c r="R94" s="50"/>
+      <c r="S94" s="50"/>
+      <c r="V94" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="W94" s="51"/>
-      <c r="Y94" s="51" t="s">
+      <c r="W94" s="50"/>
+      <c r="Y94" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="Z94" s="51"/>
-      <c r="AA94" s="51"/>
-      <c r="AB94" s="51"/>
-      <c r="AC94" s="51"/>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="Z94" s="50"/>
+      <c r="AA94" s="50"/>
+      <c r="AB94" s="50"/>
+      <c r="AC94" s="50"/>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>41</v>
       </c>
@@ -5339,7 +5335,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>44</v>
       </c>
@@ -5364,10 +5360,10 @@
       <c r="M96" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O96" s="52" t="s">
+      <c r="O96" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="P96" s="53"/>
+      <c r="P96" s="52"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
@@ -5393,7 +5389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2</v>
       </c>
@@ -5461,7 +5457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>3</v>
       </c>
@@ -5529,7 +5525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>5</v>
       </c>
@@ -5597,7 +5593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>1</v>
       </c>
@@ -5665,7 +5661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="V101" s="1" t="s">
         <v>166</v>
       </c>
@@ -5673,21 +5669,21 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="V102" s="1"/>
       <c r="W102" s="1"/>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="O103" s="51" t="s">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="O103" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="P103" s="51"/>
-      <c r="Q103" s="51"/>
-      <c r="R103" s="51"/>
-      <c r="S103" s="51"/>
-      <c r="T103" s="51"/>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="P103" s="50"/>
+      <c r="Q103" s="50"/>
+      <c r="R103" s="50"/>
+      <c r="S103" s="50"/>
+      <c r="T103" s="50"/>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O104" s="2" t="s">
         <v>46</v>
       </c>
@@ -5707,7 +5703,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O105" s="3" t="s">
         <v>48</v>
       </c>
@@ -5717,7 +5713,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O106" s="1">
         <v>2</v>
       </c>
@@ -5735,7 +5731,7 @@
       </c>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O107" s="1">
         <v>4</v>
       </c>
@@ -5753,7 +5749,7 @@
       </c>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O108" s="1">
         <v>2</v>
       </c>
@@ -5771,7 +5767,7 @@
       </c>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="O109" s="1">
         <v>1</v>
       </c>
@@ -5791,16 +5787,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="Y45:Z45"/>
+    <mergeCell ref="Y94:AC94"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="V57:Y57"/>
     <mergeCell ref="H94:M94"/>
     <mergeCell ref="A94:F94"/>
     <mergeCell ref="O103:T103"/>
     <mergeCell ref="O94:S94"/>
     <mergeCell ref="O96:P96"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="Y94:AC94"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="V57:Y57"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -5826,29 +5822,29 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="21.26953125" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
+    <col min="1" max="2" width="12.296875" customWidth="1"/>
+    <col min="3" max="3" width="21.296875" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="14" max="15" width="11.1796875" customWidth="1"/>
+    <col min="14" max="15" width="11.19921875" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="18" max="18" width="11.36328125" customWidth="1"/>
-    <col min="19" max="19" width="15.08984375" customWidth="1"/>
-    <col min="20" max="20" width="11.81640625" customWidth="1"/>
-    <col min="21" max="21" width="20.1796875" customWidth="1"/>
-    <col min="22" max="22" width="15.453125" customWidth="1"/>
-    <col min="23" max="23" width="11.7265625" customWidth="1"/>
-    <col min="24" max="24" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.81640625" customWidth="1"/>
-    <col min="27" max="27" width="11.81640625" customWidth="1"/>
-    <col min="30" max="30" width="17.08984375" customWidth="1"/>
+    <col min="18" max="18" width="11.3984375" customWidth="1"/>
+    <col min="19" max="19" width="15.09765625" customWidth="1"/>
+    <col min="20" max="20" width="11.796875" customWidth="1"/>
+    <col min="21" max="21" width="20.19921875" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="23" max="23" width="11.69921875" customWidth="1"/>
+    <col min="24" max="24" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.796875" customWidth="1"/>
+    <col min="27" max="27" width="11.796875" customWidth="1"/>
+    <col min="30" max="30" width="17.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5856,45 +5852,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="F3" s="61" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="F3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="Q3" s="51" t="s">
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="Q3" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
-      <c r="W3" s="51"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="51"/>
-      <c r="Z3" s="51"/>
-      <c r="AC3" s="51" t="s">
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AC3" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" s="51"/>
-      <c r="AE3" s="51"/>
-      <c r="AF3" s="51"/>
-      <c r="AG3" s="51"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -5980,7 +5976,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -6062,7 +6058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -6144,7 +6140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -6226,7 +6222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -6308,7 +6304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -6390,43 +6386,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A12" s="51" t="s">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="H12" s="51" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="H12" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="L12" s="51" t="s">
+      <c r="I12" s="50"/>
+      <c r="L12" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="Q12" s="51" t="s">
+      <c r="M12" s="50"/>
+      <c r="Q12" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51"/>
-      <c r="X12" s="51" t="s">
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50"/>
+      <c r="X12" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AC12" s="51" t="s">
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="50"/>
+      <c r="AA12" s="50"/>
+      <c r="AC12" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AD12" s="51"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="AD12" s="50"/>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
@@ -6494,7 +6490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -6560,7 +6556,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -6626,7 +6622,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -6692,7 +6688,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -6758,7 +6754,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -6802,7 +6798,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="H19" s="1">
         <v>6</v>
       </c>
@@ -6818,15 +6814,15 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A20" s="54" t="s">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
       <c r="H20" s="1">
         <v>7</v>
       </c>
@@ -6835,33 +6831,33 @@
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="Q20" s="51" t="s">
+      <c r="Q20" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="R20" s="51"/>
-      <c r="S20" s="51"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="51"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:30" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="59" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="1">
@@ -6888,30 +6884,30 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A22" s="59" t="s">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="58"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="60"/>
       <c r="H22" s="1">
         <v>9</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q22" s="52" t="s">
+      <c r="Q22" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="R22" s="53"/>
+      <c r="R22" s="52"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -6932,7 +6928,7 @@
       </c>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -6959,7 +6955,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -6980,7 +6976,7 @@
       </c>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -7001,30 +6997,30 @@
       </c>
       <c r="U26" s="1"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A29" s="51" t="s">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="Q29" s="51" t="s">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="Q29" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="R29" s="51"/>
-      <c r="S29" s="51"/>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="R29" s="50"/>
+      <c r="S29" s="50"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -7062,7 +7058,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>44</v>
       </c>
@@ -7080,7 +7076,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -7114,7 +7110,7 @@
       </c>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -7148,7 +7144,7 @@
       </c>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5</v>
       </c>
@@ -7182,7 +7178,7 @@
       </c>
       <c r="V34" s="1"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -7218,6 +7214,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="Q29:V29"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="Q20:U20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="Q22:R22"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F3:N3"/>
     <mergeCell ref="Q3:Z3"/>
@@ -7228,16 +7234,6 @@
     <mergeCell ref="Q12:V12"/>
     <mergeCell ref="X12:AA12"/>
     <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="Q29:V29"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="Q20:U20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="Q22:R22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="U5" r:id="rId1" xr:uid="{FC21C79F-880F-448C-B94B-338AFA8E47E7}"/>
@@ -7258,28 +7254,28 @@
       <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.26953125" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" customWidth="1"/>
-    <col min="11" max="11" width="15.26953125" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" customWidth="1"/>
+    <col min="8" max="8" width="11.296875" customWidth="1"/>
+    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="10" max="10" width="14.69921875" customWidth="1"/>
+    <col min="11" max="11" width="15.296875" customWidth="1"/>
+    <col min="12" max="12" width="9.69921875" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" customWidth="1"/>
-    <col min="18" max="18" width="9.453125" customWidth="1"/>
-    <col min="19" max="19" width="9.81640625" customWidth="1"/>
-    <col min="21" max="21" width="11.453125" customWidth="1"/>
-    <col min="24" max="24" width="11.08984375" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" customWidth="1"/>
+    <col min="15" max="15" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="9.5" customWidth="1"/>
+    <col min="19" max="19" width="9.796875" customWidth="1"/>
+    <col min="21" max="21" width="11.5" customWidth="1"/>
+    <col min="24" max="24" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>170</v>
       </c>
@@ -7302,7 +7298,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>171</v>
       </c>
@@ -7361,7 +7357,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -7382,7 +7378,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -7407,7 +7403,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
         <v>171</v>
       </c>
@@ -7466,7 +7462,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -7487,7 +7483,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -7508,7 +7504,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>188</v>
       </c>
@@ -7534,7 +7530,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>171</v>
       </c>
@@ -7602,7 +7598,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -7626,7 +7622,7 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -7650,7 +7646,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>203</v>
       </c>
@@ -7674,7 +7670,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
         <v>171</v>
       </c>
@@ -7730,7 +7726,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -7750,7 +7746,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>208</v>
       </c>
@@ -7764,7 +7760,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="26" t="s">
         <v>171</v>
       </c>
@@ -7796,7 +7792,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -7808,7 +7804,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
@@ -7819,7 +7815,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>209</v>
       </c>
@@ -7848,7 +7844,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26" t="s">
         <v>171</v>
       </c>
@@ -7919,7 +7915,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -7930,12 +7926,12 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>171</v>
       </c>
@@ -7967,7 +7963,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>221</v>
       </c>
@@ -7986,7 +7982,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26" t="s">
         <v>171</v>
       </c>
@@ -8033,7 +8029,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -8050,7 +8046,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>227</v>
       </c>
@@ -8071,7 +8067,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26" t="s">
         <v>171</v>
       </c>
@@ -8116,7 +8112,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -8133,7 +8129,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>229</v>
       </c>
@@ -8150,7 +8146,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="26" t="s">
         <v>171</v>
       </c>
@@ -8185,7 +8181,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -8198,7 +8194,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>233</v>
       </c>
@@ -8232,7 +8228,7 @@
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>171</v>
       </c>
@@ -8294,7 +8290,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -8304,7 +8300,7 @@
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>246</v>
       </c>
@@ -8332,7 +8328,7 @@
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26" t="s">
         <v>171</v>
       </c>
@@ -8388,7 +8384,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>252</v>
       </c>
@@ -8405,7 +8401,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="26" t="s">
         <v>171</v>
       </c>
@@ -8440,7 +8436,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -8453,7 +8449,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>255</v>
       </c>
@@ -8483,7 +8479,7 @@
       </c>
       <c r="O96" s="21"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
         <v>259</v>
       </c>
@@ -8534,17 +8530,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.7265625" customWidth="1"/>
+    <col min="2" max="2" width="53.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>

--- a/00_DataShare/01_Table_Demo.xlsx
+++ b/00_DataShare/01_Table_Demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\btck_organic_food\00_DataShare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5AFD7E-DF78-45C1-8B7E-3B7ADCD46A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3C3F1C-5AB6-4F11-90FB-0FE469040CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="468" yWindow="2556" windowWidth="17016" windowHeight="8880" xr2:uid="{A0CD7BE1-6CED-4699-9682-DF7E0E1909CD}"/>
+    <workbookView xWindow="28650" yWindow="3105" windowWidth="29025" windowHeight="10455" xr2:uid="{A0CD7BE1-6CED-4699-9682-DF7E0E1909CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_Demo" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="437">
   <si>
     <t>SOLUONG</t>
   </si>
@@ -1173,51 +1173,6 @@
     <t>cancel</t>
   </si>
   <si>
-    <t>Men\'s Fashion</t>
-  </si>
-  <si>
-    <t>mens-fashion</t>
-  </si>
-  <si>
-    <t>/storage/photos/1/categories/mini-banner1.jpg</t>
-  </si>
-  <si>
-    <t>Women\'s Fashion</t>
-  </si>
-  <si>
-    <t>womens-fashion</t>
-  </si>
-  <si>
-    <t>Kid\'s</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>/storage/photos/1/categories/mini-banner2.jpg</t>
-  </si>
-  <si>
-    <t>/storage/photos/1/categories/mini-banner3.jpg</t>
-  </si>
-  <si>
-    <t>combos</t>
-  </si>
-  <si>
-    <t>Combo\'s</t>
-  </si>
-  <si>
-    <t>/storage/photos/1/mini-banner4.jpg</t>
-  </si>
-  <si>
-    <t>Jogger\'s</t>
-  </si>
-  <si>
-    <t>joggers</t>
-  </si>
-  <si>
-    <t>/storage/photos/1/mini-banner5.jpg</t>
-  </si>
-  <si>
     <t>Adidas</t>
   </si>
   <si>
@@ -1255,13 +1210,175 @@
   </si>
   <si>
     <t>post_cat_id</t>
+  </si>
+  <si>
+    <t>01_antonin-fels</t>
+  </si>
+  <si>
+    <t>02_hemp-seed</t>
+  </si>
+  <si>
+    <t>02_peanut-Oil-grupo-campo</t>
+  </si>
+  <si>
+    <t>03_organic-essential-oils</t>
+  </si>
+  <si>
+    <t>05_organic-tamanu-oil</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style=\"color: rgb(146, 199, 81); font-family: &amp;quot;Amazon Ember&amp;quot;, Arial, sans-serif; font-size:
+            14px;\"&gt;RETRO STYLING. Designed with Retro style in mind, this slim straight jean provides a vintage look
+            for the modern man.&lt;/span&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul class=\"a-unordered-list a-vertical a-spacing-small\" style=\"margin-right: 0px; margin-bottom: 0px;
+        margin-left: 18px; color: rgb(146, 199, 81); padding: 0px; font-family: &amp;quot;Amazon Ember&amp;quot;, Arial,
+        sans-serif; font-size: 14px;\"&gt;
+        &lt;li style=\"list-style: disc; overflow-wrap: break-word; margin: 0px;\"&gt;&lt;span class=\"a-list-item a-size-base
+                a-color-base\" style=\"line-height: 20px !important;\"&gt;SLIM FIT. This slim fit straight leg jean is
+                designed with fashion-forward style. Built with a slim fit through the seat and thigh, our Retro jean
+                sits lower on the waist and leaves enough room to fit over your favorite pair of boots.&lt;/span&gt;&lt;/li&gt;
+    &lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>/storage/app/public/photos/1/products/agro-products/01_antonin-fels.jpg</t>
+  </si>
+  <si>
+    <t>100g</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Nutritious cereals</t>
+  </si>
+  <si>
+    <t>nutritious-cereals</t>
+  </si>
+  <si>
+    <t>Pulses</t>
+  </si>
+  <si>
+    <t>pulses</t>
+  </si>
+  <si>
+    <t>Spices and Condiments</t>
+  </si>
+  <si>
+    <t>spices-and-condiments</t>
+  </si>
+  <si>
+    <t>Cooking Oils</t>
+  </si>
+  <si>
+    <t>cooking-oils</t>
+  </si>
+  <si>
+    <t>Fruit Pulps</t>
+  </si>
+  <si>
+    <t>fruit-pulps</t>
+  </si>
+  <si>
+    <t>Agro Products</t>
+  </si>
+  <si>
+    <t>agro-products</t>
+  </si>
+  <si>
+    <t>Oils</t>
+  </si>
+  <si>
+    <t>oils</t>
+  </si>
+  <si>
+    <t>Wheat and Wheat Flour</t>
+  </si>
+  <si>
+    <t>wheat-and-wheat-flour</t>
+  </si>
+  <si>
+    <t>Rice and Rice Products</t>
+  </si>
+  <si>
+    <t>rice-and-rice-products</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>/storage/photos/1/categories/rice-and-rice-products.jpg</t>
+  </si>
+  <si>
+    <t>/storage/photos/1/categories/wheat-and-wheat-flour.jpg</t>
+  </si>
+  <si>
+    <t>/storage/photos/1/categories/oils.jpg</t>
+  </si>
+  <si>
+    <t>/storage/photos/1/categories/agro-products.jpg</t>
+  </si>
+  <si>
+    <t>/storage/photos/1/categories/fruit-pulps.jpg</t>
+  </si>
+  <si>
+    <t>/storage/photos/1/categories/cooking-oils.jpg</t>
+  </si>
+  <si>
+    <t>/storage/photos/1/categories/spices-and-condiments.jpg</t>
+  </si>
+  <si>
+    <t>/storage/photos/1/categories/pulses.jpg</t>
+  </si>
+  <si>
+    <t>/storage/photos/1/catergories/nutritious-cereals.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1312,8 +1429,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1347,6 +1470,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1498,7 +1627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1597,6 +1726,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1971,10 +2101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE3A85C-6E0E-4AD2-BB54-327AE1A0A003}">
-  <dimension ref="A2:AP109"/>
+  <dimension ref="A2:AP119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2041,18 +2171,16 @@
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
+      <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
       <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
       <c r="V3" s="36" t="s">
         <v>209</v>
       </c>
@@ -2080,62 +2208,56 @@
       <c r="A4" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="L4" s="50" t="s">
         <v>177</v>
       </c>
+      <c r="M4" s="50" t="s">
+        <v>178</v>
+      </c>
       <c r="N4" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q4" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="Q4" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="R4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>171</v>
@@ -2191,30 +2313,44 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>386</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <v>391</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G5" s="1">
+        <v>10</v>
+      </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10</v>
+      </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R5" s="1">
+        <v>6</v>
+      </c>
       <c r="V5" s="1">
         <v>1</v>
       </c>
@@ -2257,30 +2393,38 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>139</v>
+        <v>387</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>20</v>
+      </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="K6" s="1">
-        <v>3</v>
-      </c>
-      <c r="L6" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="L6" s="1">
+        <v>10</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R6" s="1">
+        <v>6</v>
+      </c>
       <c r="V6" s="1">
         <v>2</v>
       </c>
@@ -2325,30 +2469,38 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>388</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="K7" s="1">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="L7" s="1">
+        <v>10</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4</v>
+      </c>
       <c r="V7" s="1">
         <v>3</v>
       </c>
@@ -2393,30 +2545,38 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>143</v>
+        <v>389</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="K8" s="1">
-        <v>6</v>
-      </c>
-      <c r="L8" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="L8" s="1">
+        <v>10</v>
+      </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R8" s="1">
+        <v>7</v>
+      </c>
       <c r="V8" s="1">
         <v>4</v>
       </c>
@@ -2461,30 +2621,38 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>153</v>
+        <v>390</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>9</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="K9" s="1">
-        <v>3</v>
-      </c>
-      <c r="L9" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
+      <c r="Q9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R9" s="1">
+        <v>7</v>
+      </c>
       <c r="V9" s="1">
         <v>5</v>
       </c>
@@ -2570,6 +2738,9 @@
       </c>
       <c r="N12" t="s">
         <v>285</v>
+      </c>
+      <c r="O12" t="s">
+        <v>397</v>
       </c>
       <c r="V12" t="s">
         <v>269</v>
@@ -2758,16 +2929,18 @@
       </c>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="9" t="s">
+        <v>398</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>375</v>
+        <v>436</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -2788,10 +2961,10 @@
         <v>1</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>275</v>
@@ -2826,16 +2999,18 @@
       <c r="AP15" s="1"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="9" t="s">
+        <v>399</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -2854,10 +3029,10 @@
         <v>2</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>275</v>
@@ -2892,16 +3067,18 @@
       <c r="AP16" s="1"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="9" t="s">
+        <v>400</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -2920,10 +3097,10 @@
         <v>3</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>275</v>
@@ -2958,16 +3135,18 @@
       <c r="AP17" s="1"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="9" t="s">
+        <v>401</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -2986,10 +3165,10 @@
         <v>4</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>275</v>
@@ -3024,16 +3203,18 @@
       <c r="AP18" s="1"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="9" t="s">
+        <v>402</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -3052,10 +3233,10 @@
         <v>5</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>275</v>
@@ -3065,11 +3246,19 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>419</v>
+      </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
@@ -3087,10 +3276,10 @@
         <v>6</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>275</v>
@@ -3099,462 +3288,158 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:42" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="31" spans="1:42" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
         <v>277</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V31" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="L22" t="s">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
         <v>56</v>
       </c>
-      <c r="V22" s="33" t="s">
+      <c r="V32" s="33" t="s">
         <v>203</v>
       </c>
-      <c r="W22" s="34" t="s">
+      <c r="W32" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="X22" s="34" t="s">
+      <c r="X32" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="35"/>
-      <c r="AE22" s="44" t="s">
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+      <c r="AB32" s="35"/>
+      <c r="AE32" s="44" t="s">
         <v>271</v>
       </c>
-      <c r="AF22" s="44"/>
-      <c r="AH22" s="44" t="s">
+      <c r="AF32" s="44"/>
+      <c r="AH32" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="AI22" s="44"/>
-    </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
+      <c r="AI32" s="44"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>208</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="L23" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="V23" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE23" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF23" s="44" t="s">
-        <v>211</v>
-      </c>
-      <c r="AH23" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="AI23" s="44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="M24" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="N24" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="O24" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="P24" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q24" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="R24" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="X24" s="1">
-        <v>20</v>
-      </c>
-      <c r="Y24" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z24" s="49">
-        <v>45883.182141203702</v>
-      </c>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AE24" s="44"/>
-      <c r="AF24" s="44" t="s">
-        <v>265</v>
-      </c>
-      <c r="AH24" s="44"/>
-      <c r="AI24" s="44" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="X25" s="1">
-        <v>30</v>
-      </c>
-      <c r="Y25" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z25" s="49">
-        <v>45883.18241898148</v>
-      </c>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH25" s="44"/>
-      <c r="AI25" s="44" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="X26" s="1">
-        <v>30</v>
-      </c>
-      <c r="Y26" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z26" s="49">
-        <v>45884.287546296298</v>
-      </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="AH26" s="44"/>
-      <c r="AI26" s="44" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="X27" s="1">
-        <v>45</v>
-      </c>
-      <c r="Y27" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z27" s="49">
-        <v>45886.868611111109</v>
-      </c>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44" t="s">
-        <v>272</v>
-      </c>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="X28" s="1">
-        <v>50</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z28" s="49">
-        <v>45983.705439814818</v>
-      </c>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-    </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="V31" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="W31" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="X31" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
-      <c r="AB31" s="23"/>
-      <c r="AC31" s="23"/>
-      <c r="AD31" s="23"/>
-      <c r="AE31" s="23"/>
-      <c r="AF31" s="23"/>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="V32" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD32" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE32" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF32" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="B33" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C33" s="23" t="s">
-        <v>283</v>
-      </c>
+      <c r="C33" s="23"/>
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
@@ -3562,98 +3447,138 @@
       <c r="H33" s="23"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
+      <c r="L33" s="23" t="s">
+        <v>210</v>
+      </c>
       <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="V33" s="1">
-        <v>1</v>
-      </c>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="11">
-        <v>45700</v>
-      </c>
-      <c r="AB33" s="11">
-        <v>45728</v>
-      </c>
-      <c r="AC33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="1"/>
-      <c r="AF33" s="1"/>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="N33" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="O33" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="V33" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE33" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF33" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH33" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI33" s="44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>172</v>
+        <v>22</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I34" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="M34" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="N34" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="O34" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="M34" s="24" t="s">
+      <c r="P34" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="N34" s="24" t="s">
+      <c r="Q34" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="O34" s="24" t="s">
+      <c r="R34" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="V34" s="1">
-        <v>2</v>
-      </c>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="11">
-        <v>45703</v>
-      </c>
-      <c r="AB34" s="11">
-        <v>45731</v>
-      </c>
-      <c r="AC34" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="S34" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="X34" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z34" s="49">
+        <v>45883.182141203702</v>
+      </c>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3664,32 +3589,40 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
-      <c r="V35" s="1">
-        <v>3</v>
-      </c>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="11">
-        <v>45721</v>
-      </c>
-      <c r="AB35" s="11">
-        <v>45752</v>
-      </c>
-      <c r="AC35" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="X35" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z35" s="49">
+        <v>45883.18241898148</v>
+      </c>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AE35" s="44"/>
+      <c r="AF35" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH35" s="44"/>
+      <c r="AI35" s="44" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3700,32 +3633,40 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
-      <c r="V36" s="1">
-        <v>4</v>
-      </c>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="11">
-        <v>45736</v>
-      </c>
-      <c r="AB36" s="11">
-        <v>45767</v>
-      </c>
-      <c r="AC36" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X36" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z36" s="49">
+        <v>45884.287546296298</v>
+      </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3736,32 +3677,38 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="V37" s="1">
-        <v>5</v>
-      </c>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="11">
-        <v>45749</v>
-      </c>
-      <c r="AB37" s="11">
-        <v>45772</v>
-      </c>
-      <c r="AC37" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="X37" s="1">
+        <v>45</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z37" s="49">
+        <v>45886.868611111109</v>
+      </c>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AE37" s="44"/>
+      <c r="AF37" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3772,13 +3719,36 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="X38" s="1">
+        <v>50</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z38" s="49">
+        <v>45983.705439814818</v>
+      </c>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3789,13 +3759,17 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3806,80 +3780,188 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="V41" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="W41" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="X41" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y41" s="23"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="23"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="23"/>
+      <c r="AD41" s="23"/>
+      <c r="AE41" s="23"/>
+      <c r="AF41" s="23"/>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="V42" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB42" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE42" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="B43" s="23"/>
+        <v>221</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>283</v>
+      </c>
       <c r="C43" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="D43" s="23" t="s">
-        <v>283</v>
-      </c>
+      <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
-    </row>
-    <row r="44" spans="1:32" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="R43" t="s">
+        <v>72</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="11">
+        <v>45700</v>
+      </c>
+      <c r="AB43" s="11">
+        <v>45728</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H44" s="24" t="s">
+      <c r="J44" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M44" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="N44" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="O44" s="24" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="R44" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="S44" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V44" s="1">
+        <v>2</v>
+      </c>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="11">
+        <v>45703</v>
+      </c>
+      <c r="AB44" s="11">
+        <v>45731</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3890,16 +3972,35 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="V45" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="W45" s="53"/>
-      <c r="Y45" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z45" s="53"/>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="S45" t="s">
+        <v>394</v>
+      </c>
+      <c r="V45" s="1">
+        <v>3</v>
+      </c>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="11">
+        <v>45721</v>
+      </c>
+      <c r="AB45" s="11">
+        <v>45752</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3910,20 +4011,32 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="V46" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="W46" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y46" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z46" s="44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="V46" s="1">
+        <v>4</v>
+      </c>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="11">
+        <v>45736</v>
+      </c>
+      <c r="AB46" s="11">
+        <v>45767</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3934,20 +4047,32 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="V47" s="44">
-        <v>1</v>
-      </c>
-      <c r="W47" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y47" s="44">
-        <v>1</v>
-      </c>
-      <c r="Z47" s="44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="V47" s="1">
+        <v>5</v>
+      </c>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="11">
+        <v>45749</v>
+      </c>
+      <c r="AB47" s="11">
+        <v>45772</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3958,18 +4083,11 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="V48" s="44">
-        <v>2</v>
-      </c>
-      <c r="W48" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y48" s="44">
-        <v>2</v>
-      </c>
-      <c r="Z48" s="44" t="s">
-        <v>67</v>
-      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
@@ -3982,18 +4100,11 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="V49" s="44">
-        <v>3</v>
-      </c>
-      <c r="W49" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y49" s="44">
-        <v>3</v>
-      </c>
-      <c r="Z49" s="44" t="s">
-        <v>73</v>
-      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
@@ -4006,48 +4117,32 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="V50" s="44">
-        <v>4</v>
-      </c>
-      <c r="W50" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y50" s="44">
-        <v>4</v>
-      </c>
-      <c r="Z50" s="44" t="s">
-        <v>74</v>
-      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="Y51" s="44">
-        <v>5</v>
-      </c>
-      <c r="Z51" s="44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>285</v>
-      </c>
-      <c r="I52" t="s">
-        <v>285</v>
-      </c>
-      <c r="V52" s="44"/>
-      <c r="W52" s="44"/>
-      <c r="Y52" s="44">
-        <v>6</v>
-      </c>
-      <c r="Z52" s="44" t="s">
-        <v>68</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
-        <v>227</v>
+        <v>280</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="23" t="s">
@@ -4059,355 +4154,213 @@
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
-      <c r="I53" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="J53" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="K53" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="Y53" s="44">
-        <v>7</v>
-      </c>
-      <c r="Z53" s="44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+    </row>
+    <row r="54" spans="1:26" ht="18.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="31" t="s">
+      <c r="B54" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="40" t="s">
+      <c r="D54" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H54" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="F54" s="40" t="s">
+      <c r="I54" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G54" s="40" t="s">
+      <c r="J54" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="J54" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="K54" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="L54" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="M54" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="N54" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="O54" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
-      <c r="Y54" s="44">
-        <v>8</v>
-      </c>
-      <c r="Z54" s="44" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>1</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="I55" s="1">
-        <v>1</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="L55" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="Y55" s="44">
-        <v>9</v>
-      </c>
-      <c r="Z55" s="44" t="s">
-        <v>76</v>
-      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="V55" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="W55" s="54"/>
+      <c r="Y55" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z55" s="54"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>2</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="I56" s="1">
-        <v>2</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="V56" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="W56" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y56" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z56" s="44" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>3</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="I57" s="1">
-        <v>3</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="V57" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="W57" s="53"/>
-      <c r="X57" s="53"/>
-      <c r="Y57" s="53"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="V57" s="44">
+        <v>1</v>
+      </c>
+      <c r="W57" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y57" s="44">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="44" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>4</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="I58" s="1">
-        <v>4</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="V58" s="46" t="s">
-        <v>40</v>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="V58" s="44">
+        <v>2</v>
       </c>
       <c r="W58" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="X58" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y58" s="44" t="s">
-        <v>18</v>
+        <v>61</v>
+      </c>
+      <c r="Y58" s="44">
+        <v>2</v>
+      </c>
+      <c r="Z58" s="44" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>5</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="I59" s="1">
-        <v>5</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="V59" s="44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W59" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="X59" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y59" s="47" t="s">
-        <v>88</v>
+        <v>62</v>
+      </c>
+      <c r="Y59" s="44">
+        <v>3</v>
+      </c>
+      <c r="Z59" s="44" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>6</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="I60" s="1">
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="V60" s="44">
+        <v>4</v>
+      </c>
+      <c r="W60" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y60" s="44">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V61" s="44"/>
+      <c r="W61" s="44"/>
+      <c r="Y61" s="44">
+        <v>5</v>
+      </c>
+      <c r="Z61" s="44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>285</v>
+      </c>
+      <c r="I62" t="s">
+        <v>285</v>
+      </c>
+      <c r="V62" s="44"/>
+      <c r="W62" s="44"/>
+      <c r="Y62" s="44">
         <v>6</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="V60" s="44">
-        <v>2</v>
-      </c>
-      <c r="W60" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="X60" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y60" s="47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="V61" s="44">
-        <v>3</v>
-      </c>
-      <c r="W61" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="X61" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y61" s="47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="V62" s="44">
-        <v>4</v>
-      </c>
-      <c r="W62" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="X62" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y62" s="47" t="s">
-        <v>91</v>
+      <c r="Z62" s="44" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="B63" s="23" t="s">
-        <v>230</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B63" s="23"/>
       <c r="C63" s="23" t="s">
         <v>283</v>
       </c>
@@ -4417,19 +4370,26 @@
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="V63" s="44">
-        <v>5</v>
-      </c>
-      <c r="W63" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="X63" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y63" s="47" t="s">
-        <v>92</v>
+      <c r="I63" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="J63" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="K63" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="44"/>
+      <c r="Y63" s="44">
+        <v>7</v>
+      </c>
+      <c r="Z63" s="44" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
@@ -4443,25 +4403,45 @@
         <v>173</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E64" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F64" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F64" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="G64" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J64" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="K64" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="L64" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="G64" s="31" t="s">
+      <c r="M64" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="H64" s="31" t="s">
+      <c r="N64" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="I64" s="31" t="s">
+      <c r="O64" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="L64" s="20" t="s">
-        <v>346</v>
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
+      <c r="Y64" s="44">
+        <v>8</v>
+      </c>
+      <c r="Z64" s="44" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
@@ -4469,447 +4449,478 @@
         <v>1</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F65" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="I65" s="1">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="Y65" s="44">
+        <v>9</v>
+      </c>
+      <c r="Z65" s="44" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F66" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="1">
+        <v>2</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F67" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1">
+        <v>3</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="V67" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="W67" s="54"/>
+      <c r="X67" s="54"/>
+      <c r="Y67" s="54"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>4</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>287</v>
+        <v>341</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F68" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
+      <c r="I68" s="1">
+        <v>4</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="V68" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="W68" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="X68" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y68" s="44" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>288</v>
+        <v>155</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>290</v>
+        <v>343</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F69" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
+      <c r="I69" s="1">
+        <v>5</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="V69" s="44">
+        <v>1</v>
+      </c>
+      <c r="W69" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="X69" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y69" s="47" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>6</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>289</v>
+        <v>345</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E70" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="I70" s="1">
+        <v>6</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="V70" s="44">
+        <v>2</v>
+      </c>
+      <c r="W70" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="X70" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y70" s="47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V71" s="44">
+        <v>3</v>
+      </c>
+      <c r="W71" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="X71" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y71" s="47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V72" s="44">
+        <v>4</v>
+      </c>
+      <c r="W72" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="X72" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y72" s="47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="V73" s="44">
+        <v>5</v>
+      </c>
+      <c r="W73" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="X73" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y73" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E74" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="H74" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="I74" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="L74" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J71" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="23" t="s">
-        <v>229</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="N72" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="O72" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="R72" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="S72" s="23"/>
-      <c r="T72" s="23"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="23"/>
-      <c r="W72" s="23"/>
-      <c r="X72" s="23"/>
-      <c r="Y72" s="23"/>
-      <c r="Z72" s="23"/>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="N73" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T73" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="W73" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="X73" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y73" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z73" s="40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="N74" s="1">
-        <v>1</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="R74" s="1"/>
-      <c r="S74" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="V74" s="1">
-        <v>1</v>
-      </c>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="N75" s="1">
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>2</v>
       </c>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="25"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="9"/>
-      <c r="T75" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="U75" s="1">
-        <v>2</v>
-      </c>
-      <c r="V75" s="1">
-        <v>0</v>
-      </c>
-      <c r="W75" s="1"/>
-      <c r="X75" s="1"/>
-      <c r="Y75" s="1"/>
-      <c r="Z75" s="1"/>
-    </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="A77" s="1">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="A78" s="1">
+        <v>4</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="A79" s="1">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-    </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="J81" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B82" s="23" t="s">
         <v>230</v>
@@ -4924,273 +4935,264 @@
       <c r="F82" s="23"/>
       <c r="G82" s="23"/>
       <c r="H82" s="23"/>
-      <c r="K82" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="L82" s="23" t="s">
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="N82" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="O82" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="M82" s="23"/>
-      <c r="N82" s="23" t="s">
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="O82" s="23" t="s">
+      <c r="R82" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="23"/>
       <c r="S82" s="23"/>
-    </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A83" s="42" t="s">
+      <c r="T82" s="23"/>
+      <c r="U82" s="23"/>
+      <c r="V82" s="23"/>
+      <c r="W82" s="23"/>
+      <c r="X82" s="23"/>
+      <c r="Y82" s="23"/>
+      <c r="Z82" s="23"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>244</v>
+        <v>21</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N83" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="S83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T83" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="U83" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="V83" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F83" s="40" t="s">
+      <c r="W83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="X83" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="G83" s="40" t="s">
+      <c r="Y83" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="H83" s="40" t="s">
+      <c r="Z83" s="40" t="s">
         <v>183</v>
       </c>
-      <c r="K83" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="L83" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="M83" s="40" t="s">
-        <v>248</v>
-      </c>
-      <c r="N83" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="O83" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="P83" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q83" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="R83" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="S83" s="40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>1</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D84" s="1">
-        <v>30</v>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>305</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F84" s="1"/>
+        <v>306</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="K84" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>323</v>
-      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
       <c r="N84" s="1">
         <v>1</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P84" s="1"/>
-      <c r="Q84" s="1"/>
+      <c r="Q84" s="25" t="s">
+        <v>317</v>
+      </c>
       <c r="R84" s="1"/>
-      <c r="S84" s="1"/>
-    </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>2</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D85" s="1">
-        <v>10</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="S84" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="U84" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="V84" s="1">
+        <v>1</v>
+      </c>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="K85" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>323</v>
-      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
       <c r="N85" s="1">
-        <v>1</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>326</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O85" s="1"/>
       <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
+      <c r="Q85" s="25"/>
       <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-    </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>3</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D86" s="1">
-        <v>10</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="S85" s="9"/>
+      <c r="T85" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="U85" s="1">
+        <v>2</v>
+      </c>
+      <c r="V85" s="1">
+        <v>0</v>
+      </c>
+      <c r="W85" s="1"/>
+      <c r="X85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="K86" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="N86" s="1">
-        <v>1</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>328</v>
-      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
-    </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>4</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D87" s="1">
-        <v>20</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="T86" s="1"/>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
+      <c r="W86" s="1"/>
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="K87" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="N87" s="1">
-        <v>1</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>330</v>
-      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
-    </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>5</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D88" s="1">
-        <v>40</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="T87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="V87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
-      <c r="K88" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="L88" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="N88" s="1">
-        <v>1</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>332</v>
-      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="1"/>
       <c r="S88" s="1"/>
-    </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="T88" s="1"/>
+      <c r="U88" s="1"/>
+      <c r="V88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -5199,604 +5201,913 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="K89" s="48" t="s">
-        <v>333</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M89" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="N89" s="1">
-        <v>1</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>334</v>
-      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
-    </row>
-    <row r="92" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A94" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B94" s="50"/>
-      <c r="C94" s="50"/>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="H94" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="I94" s="50"/>
-      <c r="J94" s="50"/>
-      <c r="K94" s="50"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="50"/>
-      <c r="O94" s="50" t="s">
-        <v>56</v>
-      </c>
-      <c r="P94" s="50"/>
-      <c r="Q94" s="50"/>
-      <c r="R94" s="50"/>
-      <c r="S94" s="50"/>
-      <c r="V94" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="W94" s="50"/>
-      <c r="Y94" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z94" s="50"/>
-      <c r="AA94" s="50"/>
-      <c r="AB94" s="50"/>
-      <c r="AC94" s="50"/>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>43</v>
+      <c r="T89" s="1"/>
+      <c r="U89" s="1"/>
+      <c r="V89" s="1"/>
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C92" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="K92" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="L92" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M92" s="23"/>
+      <c r="N92" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="O92" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="P92" s="23"/>
+      <c r="Q92" s="23"/>
+      <c r="R92" s="23"/>
+      <c r="S92" s="23"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F93" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G93" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="H93" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="K93" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="L93" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="M93" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="N93" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="O93" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="P93" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q93" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="R93" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="S93" s="40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D94" s="1">
+        <v>30</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="K94" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>2</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>309</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>23</v>
+        <v>311</v>
+      </c>
+      <c r="D95" s="1">
+        <v>10</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="P95" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q95" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="R95" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="S95" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="V95" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W95" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y95" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z95" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA95" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC95" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+        <v>325</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N95" s="1">
+        <v>1</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>3</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D96" s="1">
+        <v>10</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="F96" s="1"/>
-      <c r="H96" s="1">
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="K96" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N96" s="1">
         <v>1</v>
       </c>
-      <c r="I96" s="1">
-        <v>20250205</v>
-      </c>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="L96" s="1">
-        <v>1</v>
-      </c>
-      <c r="M96" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O96" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="P96" s="52"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="V96" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="W96" s="1">
-        <v>2000</v>
-      </c>
-      <c r="Y96" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z96" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA96" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB96" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC96" s="1">
-        <v>2</v>
-      </c>
+      <c r="O96" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C97" s="1">
-        <v>20250405</v>
+        <v>313</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="D97" s="1">
-        <v>30</v>
-      </c>
-      <c r="E97" s="1">
-        <v>900</v>
+        <v>20</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="F97" s="1"/>
-      <c r="H97" s="1">
-        <v>2</v>
-      </c>
-      <c r="I97" s="1">
-        <v>20250407</v>
-      </c>
-      <c r="J97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
       <c r="K97" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="L97" s="1">
-        <v>3</v>
+        <v>329</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O97" s="1">
-        <v>2</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q97" s="1">
-        <v>5</v>
-      </c>
-      <c r="R97" s="1">
-        <v>20250115</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N97" s="1">
+        <v>1</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
+      <c r="R97" s="1"/>
       <c r="S97" s="1"/>
-      <c r="V97" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="W97" s="1">
-        <v>3000</v>
-      </c>
-      <c r="Y97" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z97" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA97" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB97" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC97" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D98" s="1">
+        <v>40</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="K98" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N98" s="1">
+        <v>1</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+    </row>
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="K99" s="48" t="s">
+        <v>333</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="N99" s="1">
+        <v>1</v>
+      </c>
+      <c r="O99" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+    </row>
+    <row r="102" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A104" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" s="51"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="51"/>
+      <c r="F104" s="51"/>
+      <c r="H104" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="I104" s="51"/>
+      <c r="J104" s="51"/>
+      <c r="K104" s="51"/>
+      <c r="L104" s="51"/>
+      <c r="M104" s="51"/>
+      <c r="O104" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="P104" s="51"/>
+      <c r="Q104" s="51"/>
+      <c r="R104" s="51"/>
+      <c r="S104" s="51"/>
+      <c r="V104" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="W104" s="51"/>
+      <c r="Y104" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z104" s="51"/>
+      <c r="AA104" s="51"/>
+      <c r="AB104" s="51"/>
+      <c r="AC104" s="51"/>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q105" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R105" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S105" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="V105" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y105" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC105" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="H106" s="1">
+        <v>1</v>
+      </c>
+      <c r="I106" s="1">
+        <v>20250205</v>
+      </c>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L106" s="1">
+        <v>1</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O106" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="P106" s="53"/>
+      <c r="Q106" s="6"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="6"/>
+      <c r="V106" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="W106" s="1">
+        <v>2000</v>
+      </c>
+      <c r="Y106" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z106" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA106" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB106" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC106" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>2</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" s="1">
+        <v>20250405</v>
+      </c>
+      <c r="D107" s="1">
+        <v>30</v>
+      </c>
+      <c r="E107" s="1">
+        <v>900</v>
+      </c>
+      <c r="F107" s="1"/>
+      <c r="H107" s="1">
+        <v>2</v>
+      </c>
+      <c r="I107" s="1">
+        <v>20250407</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L107" s="1">
         <v>3</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="M107" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O107" s="1">
+        <v>2</v>
+      </c>
+      <c r="P107" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C98" s="1">
+      <c r="Q107" s="1">
+        <v>5</v>
+      </c>
+      <c r="R107" s="1">
+        <v>20250115</v>
+      </c>
+      <c r="S107" s="1"/>
+      <c r="V107" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="W107" s="1">
+        <v>3000</v>
+      </c>
+      <c r="Y107" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z107" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA107" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB107" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>3</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" s="1">
         <v>20250517</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D108" s="1">
         <v>20</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E108" s="1">
         <v>800</v>
       </c>
-      <c r="F98" s="1"/>
-      <c r="H98" s="1">
+      <c r="F108" s="1"/>
+      <c r="H108" s="1">
         <v>3</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I108" s="1">
         <v>20250420</v>
       </c>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1" t="s">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="L98" s="1">
+      <c r="L108" s="1">
         <v>2</v>
       </c>
-      <c r="M98" s="1" t="s">
+      <c r="M108" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O98" s="1">
+      <c r="O108" s="1">
         <v>3</v>
       </c>
-      <c r="P98" s="1" t="s">
+      <c r="P108" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q98" s="1">
+      <c r="Q108" s="1">
         <v>5</v>
       </c>
-      <c r="R98" s="1">
+      <c r="R108" s="1">
         <v>20250212</v>
       </c>
-      <c r="S98" s="1"/>
-      <c r="V98" s="1" t="s">
+      <c r="S108" s="1"/>
+      <c r="V108" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="W98" s="1">
+      <c r="W108" s="1">
         <v>4000</v>
       </c>
-      <c r="Y98" s="1" t="s">
+      <c r="Y108" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="Z98" s="1" t="s">
+      <c r="Z108" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AA98" s="1" t="s">
+      <c r="AA108" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AB98" s="1" t="s">
+      <c r="AB108" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AC98" s="1">
+      <c r="AC108" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
         <v>5</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C109" s="1">
         <v>20250625</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D109" s="1">
         <v>50</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E109" s="1">
         <v>700</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="H99" s="1">
+      <c r="F109" s="1"/>
+      <c r="H109" s="1">
         <v>4</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I109" s="1">
         <v>20250428</v>
       </c>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1" t="s">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L99" s="1">
+      <c r="L109" s="1">
         <v>3</v>
       </c>
-      <c r="M99" s="1" t="s">
+      <c r="M109" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O99" s="1">
+      <c r="O109" s="1">
         <v>2</v>
       </c>
-      <c r="P99" s="1" t="s">
+      <c r="P109" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q99" s="1">
+      <c r="Q109" s="1">
         <v>4</v>
       </c>
-      <c r="R99" s="1">
+      <c r="R109" s="1">
         <v>20250317</v>
       </c>
-      <c r="S99" s="1"/>
-      <c r="V99" s="1" t="s">
+      <c r="S109" s="1"/>
+      <c r="V109" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="W99" s="1">
+      <c r="W109" s="1">
         <v>5000</v>
       </c>
-      <c r="Y99" s="1" t="s">
+      <c r="Y109" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z99" s="1" t="s">
+      <c r="Z109" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AA99" s="1" t="s">
+      <c r="AA109" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AB99" s="1" t="s">
+      <c r="AB109" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AC99" s="1">
+      <c r="AC109" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
         <v>1</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C110" s="1">
         <v>20250701</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D110" s="1">
         <v>40</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E110" s="1">
         <v>850</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="H100" s="1">
+      <c r="F110" s="1"/>
+      <c r="H110" s="1">
         <v>5</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I110" s="1">
         <v>20250502</v>
       </c>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1" t="s">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="L100" s="1">
+      <c r="L110" s="1">
         <v>5</v>
       </c>
-      <c r="M100" s="1" t="s">
+      <c r="M110" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O100" s="1">
+      <c r="O110" s="1">
         <v>1</v>
       </c>
-      <c r="P100" s="1" t="s">
+      <c r="P110" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q100" s="1">
+      <c r="Q110" s="1">
         <v>3</v>
       </c>
-      <c r="R100" s="1">
+      <c r="R110" s="1">
         <v>20250405</v>
       </c>
-      <c r="S100" s="1"/>
-      <c r="V100" s="1" t="s">
+      <c r="S110" s="1"/>
+      <c r="V110" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="W100" s="1">
+      <c r="W110" s="1">
         <v>10000</v>
       </c>
-      <c r="Y100" s="1" t="s">
+      <c r="Y110" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="Z100" s="1" t="s">
+      <c r="Z110" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AA100" s="1" t="s">
+      <c r="AA110" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AB100" s="1" t="s">
+      <c r="AB110" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AC100" s="1">
+      <c r="AC110" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="V101" s="1" t="s">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V111" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="W101" s="1">
+      <c r="W111" s="1">
         <v>20000</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="V102" s="1"/>
-      <c r="W102" s="1"/>
-    </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O103" s="50" t="s">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="V112" s="1"/>
+      <c r="W112" s="1"/>
+    </row>
+    <row r="113" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O113" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P103" s="50"/>
-      <c r="Q103" s="50"/>
-      <c r="R103" s="50"/>
-      <c r="S103" s="50"/>
-      <c r="T103" s="50"/>
-    </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O104" s="2" t="s">
+      <c r="P113" s="51"/>
+      <c r="Q113" s="51"/>
+      <c r="R113" s="51"/>
+      <c r="S113" s="51"/>
+      <c r="T113" s="51"/>
+    </row>
+    <row r="114" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O114" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P104" s="2" t="s">
+      <c r="P114" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q104" s="1" t="s">
+      <c r="Q114" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R104" s="1" t="s">
+      <c r="R114" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S104" s="1" t="s">
+      <c r="S114" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T104" s="1" t="s">
+      <c r="T114" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O105" s="3" t="s">
+    <row r="115" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O115" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P105" s="3"/>
-      <c r="Q105" s="1"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="1"/>
-      <c r="T105" s="1"/>
-    </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O106" s="1">
+      <c r="P115" s="3"/>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
+      <c r="T115" s="1"/>
+    </row>
+    <row r="116" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O116" s="1">
         <v>2</v>
       </c>
-      <c r="P106" s="1" t="s">
+      <c r="P116" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Q106" s="1">
+      <c r="Q116" s="1">
         <v>20250115</v>
       </c>
-      <c r="R106" s="1">
+      <c r="R116" s="1">
         <v>15</v>
       </c>
-      <c r="S106" s="1">
+      <c r="S116" s="1">
         <v>200</v>
       </c>
-      <c r="T106" s="1"/>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O107" s="1">
+      <c r="T116" s="1"/>
+    </row>
+    <row r="117" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O117" s="1">
         <v>4</v>
       </c>
-      <c r="P107" s="1" t="s">
+      <c r="P117" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q107" s="1">
+      <c r="Q117" s="1">
         <v>20250212</v>
       </c>
-      <c r="R107" s="1">
+      <c r="R117" s="1">
         <v>20</v>
       </c>
-      <c r="S107" s="1">
+      <c r="S117" s="1">
         <v>150</v>
       </c>
-      <c r="T107" s="1"/>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O108" s="1">
+      <c r="T117" s="1"/>
+    </row>
+    <row r="118" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O118" s="1">
         <v>2</v>
       </c>
-      <c r="P108" s="1" t="s">
+      <c r="P118" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Q108" s="1">
+      <c r="Q118" s="1">
         <v>20250317</v>
       </c>
-      <c r="R108" s="1">
+      <c r="R118" s="1">
         <v>10</v>
       </c>
-      <c r="S108" s="1">
+      <c r="S118" s="1">
         <v>100</v>
       </c>
-      <c r="T108" s="1"/>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="O109" s="1">
+      <c r="T118" s="1"/>
+    </row>
+    <row r="119" spans="15:20" x14ac:dyDescent="0.25">
+      <c r="O119" s="1">
         <v>1</v>
       </c>
-      <c r="P109" s="1" t="s">
+      <c r="P119" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Q109" s="1">
+      <c r="Q119" s="1">
         <v>20250405</v>
       </c>
-      <c r="R109" s="1">
+      <c r="R119" s="1">
         <v>40</v>
       </c>
-      <c r="S109" s="1">
+      <c r="S119" s="1">
         <v>900</v>
       </c>
-      <c r="T109" s="1"/>
+      <c r="T119" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="Y45:Z45"/>
-    <mergeCell ref="Y94:AC94"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="V57:Y57"/>
-    <mergeCell ref="H94:M94"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="O103:T103"/>
-    <mergeCell ref="O94:S94"/>
-    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="Y55:Z55"/>
+    <mergeCell ref="Y104:AC104"/>
+    <mergeCell ref="V104:W104"/>
+    <mergeCell ref="V67:Y67"/>
+    <mergeCell ref="H104:M104"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="O113:T113"/>
+    <mergeCell ref="O104:S104"/>
+    <mergeCell ref="O106:P106"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -5807,7 +6118,7 @@
     <hyperlink ref="AE8" r:id="rId5" xr:uid="{2BE5A40D-F9F6-44A6-822A-CEF85BD6572B}"/>
     <hyperlink ref="AE7" r:id="rId6" xr:uid="{2FE5C15E-1A59-4DF5-9DA9-4A3033FC5414}"/>
     <hyperlink ref="AE6" r:id="rId7" xr:uid="{BC6C3BC8-7B02-41AA-95FA-46C9B9E21AC8}"/>
-    <hyperlink ref="Q74" r:id="rId8" xr:uid="{6C09BB25-35F4-459D-BE16-BA30C2C57D73}"/>
+    <hyperlink ref="Q84" r:id="rId8" xr:uid="{6C09BB25-35F4-459D-BE16-BA30C2C57D73}"/>
     <hyperlink ref="AF7" r:id="rId9" xr:uid="{3B297ED9-C55C-421B-B268-0B340954F54A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5853,42 +6164,42 @@
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="F3" s="54" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="F3" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="Q3" s="50" t="s">
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="Q3" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AC3" s="50" t="s">
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AC3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="51"/>
+      <c r="AG3" s="51"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -6387,40 +6698,40 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="H12" s="50" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="H12" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="L12" s="50" t="s">
+      <c r="I12" s="51"/>
+      <c r="L12" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="50"/>
-      <c r="Q12" s="50" t="s">
+      <c r="M12" s="51"/>
+      <c r="Q12" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50"/>
-      <c r="X12" s="50" t="s">
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="X12" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AC12" s="50" t="s">
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AC12" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="AD12" s="50"/>
+      <c r="AD12" s="51"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -6815,14 +7126,14 @@
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="H20" s="1">
         <v>7</v>
       </c>
@@ -6831,13 +7142,13 @@
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="Q20" s="50" t="s">
+      <c r="Q20" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
@@ -6848,16 +7159,16 @@
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="60" t="s">
         <v>2</v>
       </c>
       <c r="H21" s="1">
@@ -6885,24 +7196,24 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="60"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="61"/>
       <c r="H22" s="1">
         <v>9</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q22" s="51" t="s">
+      <c r="Q22" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="R22" s="52"/>
+      <c r="R22" s="53"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
@@ -7003,22 +7314,22 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="Q29" s="50" t="s">
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="Q29" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
